--- a/biology/Médecine/Chromosome_8_humain/Chromosome_8_humain.xlsx
+++ b/biology/Médecine/Chromosome_8_humain/Chromosome_8_humain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chromosome 8 est un des 23 chromosomes humains. C'est l'un des 22 autosomes.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques du chromosome 8</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nombre de paires de base : 146 274 826
 Nombre de gènes : 794
@@ -545,7 +559,9 @@
           <t>Maladies localisées sur le chromosome 8</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La nomenclature utilisée pour localiser un gène est décrite dans l'article de celui-ci
 Les maladies en rapport avec des anomalies génétiques localisées sur le chromosome 8 sont :
@@ -577,9 +593,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La KHDRBS3 (pour « KH domain-containing, RNA-binding, signal transduction-associated protein 3 » en anglais) est une protéine codée par le gène KHDRBS3, présent sur le chromosome 8 humain et le chromosome 15 de la souris[1],[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La KHDRBS3 (pour « KH domain-containing, RNA-binding, signal transduction-associated protein 3 » en anglais) est une protéine codée par le gène KHDRBS3, présent sur le chromosome 8 humain et le chromosome 15 de la souris.
 </t>
         </is>
       </c>
@@ -609,6 +627,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -634,10 +654,12 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Ensemble Genome Browser [1]
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD.[2]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Ensemble Genome Browser 
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD.
 ↑ (en) Venables JP, Vernet C, Chew SL, Elliott DJ, Cowmeadow RB, Wu J, Cooke HJ, Artzt K, Eperon IC, « T-STAR/ETOILE: a novel relative of SAM68 that interacts with an RNA-binding protein implicated in spermatogenesis », Hum Mol Genet, vol. 8, no 6,‎ juillet 1999, p. 959–69 (PMID 10332027, DOI 10.1093/hmg/8.6.959).
 ↑ (en) Lee J, Burr JG, « Salpalpha and Salpbeta, growth-arresting homologs of Sam68 », Gene, vol. 240, no 1,‎ janvier 2000, p. 133–47 (PMID 10564820, DOI 10.1016/S0378-1119(99)00421-7).
 ↑ (en) « Entrez Gene: KHDRBS3 KH domain containing, RNA binding, signal transduction associated 3 ».
